--- a/src/test/input/used/NLBM/MVP3 scope for TF_DC B4-010_20250224.xlsx
+++ b/src/test/input/used/NLBM/MVP3 scope for TF_DC B4-010_20250224.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_workspace\LC_GEN\src\test\input\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E751FC60-E0D9-4EED-9BB6-04C884656B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C6FB74-1654-4140-9624-34C2E64EAB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="2340" windowWidth="29020" windowHeight="15700" firstSheet="1" activeTab="2" xr2:uid="{FD512113-F5B0-4DB7-82FF-ABFE321860E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="2" xr2:uid="{FD512113-F5B0-4DB7-82FF-ABFE321860E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
